--- a/PES/SRB Invoices/1050  Invoice for Faize Hakimi - Tahiri Masjid second Floor.xlsx
+++ b/PES/SRB Invoices/1050  Invoice for Faize Hakimi - Tahiri Masjid second Floor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9F3E8A-58B9-4278-B431-4EAA0A3958DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC2543C-1A8F-4DD5-8853-E9FFFDB88D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,16 +94,16 @@
     <t>M/S FAIZE HAKIMI</t>
   </si>
   <si>
-    <t>Invoice # 1049</t>
-  </si>
-  <si>
-    <t>HVAC charges at First Floor Tahiri Masjid Saddar Karachi such as:</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Installation of floor standing unit. </t>
   </si>
   <si>
     <t>4) Installation of cable Tray</t>
+  </si>
+  <si>
+    <t>Invoice # 1050</t>
+  </si>
+  <si>
+    <t>HVAC charges at Second Floor Tahiri Masjid Saddar Karachi such as:</t>
   </si>
 </sst>
 </file>
@@ -443,6 +443,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -470,57 +521,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1091,16 +1091,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1120,11 +1120,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1133,11 +1133,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="F15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1157,87 +1157,87 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="51"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="54"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="54"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="44"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1262,11 +1262,11 @@
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
@@ -1295,11 +1295,11 @@
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="B27" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1309,9 +1309,9 @@
     </row>
     <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1320,41 +1320,41 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="43">
-        <v>1843700</v>
-      </c>
-      <c r="F29" s="44">
+      <c r="A29" s="42"/>
+      <c r="B29" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="60">
+        <v>1920500</v>
+      </c>
+      <c r="F29" s="61">
         <v>0.15</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="62">
         <f>E29*15%</f>
-        <v>276555</v>
-      </c>
-      <c r="H29" s="61">
+        <v>288075</v>
+      </c>
+      <c r="H29" s="50">
         <f>E29+G29</f>
-        <v>2120255</v>
+        <v>2208575</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="61"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="39"/>
@@ -1362,11 +1362,11 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1376,11 +1376,11 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
@@ -1435,23 +1435,23 @@
     </row>
     <row r="37" spans="1:13" s="21" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="17">
         <f>SUM(E29:E35)</f>
-        <v>1843700</v>
+        <v>1920500</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="19">
         <f>SUM(G29:G35)</f>
-        <v>276555</v>
+        <v>288075</v>
       </c>
       <c r="H37" s="20">
         <f>SUM(H29:H35)</f>
-        <v>2120255</v>
+        <v>2208575</v>
       </c>
       <c r="J37" s="22"/>
       <c r="M37" s="22"/>
@@ -1503,6 +1503,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1519,14 +1527,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
